--- a/xlsx/美国建筑_intext.xlsx
+++ b/xlsx/美国建筑_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>美国建筑</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國文化</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国建筑</t>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
@@ -59,31 +59,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>美洲原住民神話</t>
+    <t>美洲原住民神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>美國飲食</t>
+    <t>美国饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>美國節日</t>
+    <t>美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>美國宗教</t>
+    <t>美国宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國文學</t>
+    <t>美国文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%BC%AB%E7%94%BB%E4%B9%A6</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>美國音樂</t>
+    <t>美国音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>美國體育</t>
+    <t>美国体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>美國媒體</t>
+    <t>美国媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>美國國旗</t>
+    <t>美国国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>美國國徽</t>
+    <t>美国国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
   </si>
   <si>
-    <t>白頭海鵰</t>
+    <t>白头海鵰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A2%AF</t>
   </si>
   <si>
-    <t>電梯</t>
+    <t>电梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
+    <t>伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -197,49 +197,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E5%8F%A4%E6%A0%B9%E6%BC%A2%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>所羅門·古根漢美術館</t>
+    <t>所罗门·古根汉美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%B8%AB</t>
   </si>
   <si>
-    <t>建築師</t>
+    <t>建筑师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%96%AF%C2%B7%E5%87%A1%C2%B7%E5%BE%B7%E7%BE%85</t>
   </si>
   <si>
-    <t>密斯·凡·德羅</t>
+    <t>密斯·凡·德罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E6%A0%BC%E7%BE%85%E4%BD%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>沃爾特·格羅佩斯</t>
+    <t>沃尔特·格罗佩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E8%B1%AA%E6%96%AF</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E5%9F%BA%E5%A4%AB</t>
   </si>
   <si>
-    <t>邁克爾·基夫</t>
+    <t>迈克尔·基夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E9%A3%8E%E6%A0%BC</t>
@@ -269,9 +269,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>美国历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -827,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -869,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -941,43 +938,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
   </si>
   <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美国人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
   </si>
   <si>
-    <t>美国节日</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
-    <t>美国体育</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -995,15 +977,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美国文化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
   </si>
   <si>
-    <t>美国文学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
   </si>
   <si>
@@ -1025,21 +1001,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
   </si>
   <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
@@ -1067,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1103,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1127,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -2708,7 +2678,7 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2734,10 +2704,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2763,10 +2733,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2792,10 +2762,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2821,10 +2791,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2850,10 +2820,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2879,10 +2849,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2908,10 +2878,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2937,10 +2907,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2966,10 +2936,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2995,10 +2965,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3024,10 +2994,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3053,10 +3023,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3082,10 +3052,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3111,10 +3081,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3140,10 +3110,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3169,10 +3139,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3198,10 +3168,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3227,10 +3197,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3256,10 +3226,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3285,10 +3255,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3314,10 +3284,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3343,10 +3313,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3372,10 +3342,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3401,10 +3371,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3430,10 +3400,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3459,10 +3429,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3488,10 +3458,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3517,10 +3487,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3546,10 +3516,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3575,10 +3545,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3604,10 +3574,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3633,10 +3603,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3662,10 +3632,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3691,10 +3661,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3720,10 +3690,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3749,10 +3719,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3778,10 +3748,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3807,10 +3777,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3836,10 +3806,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3865,10 +3835,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3894,10 +3864,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3923,10 +3893,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3952,10 +3922,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3981,10 +3951,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4010,10 +3980,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4039,10 +4009,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4068,10 +4038,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4097,10 +4067,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4126,10 +4096,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4155,10 +4125,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4184,10 +4154,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4213,10 +4183,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4242,10 +4212,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4271,10 +4241,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4300,10 +4270,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4329,10 +4299,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4358,10 +4328,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4387,10 +4357,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4416,10 +4386,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4445,10 +4415,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4474,10 +4444,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4503,10 +4473,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4532,10 +4502,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4561,10 +4531,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4590,10 +4560,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4619,10 +4589,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4648,10 +4618,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4677,10 +4647,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4706,10 +4676,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4735,10 +4705,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4764,10 +4734,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -4793,10 +4763,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4822,10 +4792,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4851,10 +4821,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4880,10 +4850,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4909,10 +4879,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4938,10 +4908,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4967,10 +4937,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4996,10 +4966,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5025,10 +4995,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5054,10 +5024,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5083,10 +5053,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5112,10 +5082,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5141,10 +5111,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5170,10 +5140,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5199,10 +5169,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5228,10 +5198,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5257,10 +5227,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5286,10 +5256,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5315,10 +5285,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5344,10 +5314,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5373,10 +5343,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5402,10 +5372,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5431,10 +5401,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5460,10 +5430,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5489,10 +5459,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5518,10 +5488,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5547,10 +5517,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5576,10 +5546,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5605,10 +5575,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5634,10 +5604,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5663,10 +5633,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5692,10 +5662,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5721,10 +5691,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5750,10 +5720,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5779,10 +5749,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5808,10 +5778,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5837,10 +5807,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5866,10 +5836,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5924,10 +5894,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5953,10 +5923,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5982,10 +5952,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -6011,10 +5981,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6040,10 +6010,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6069,10 +6039,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6098,10 +6068,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6127,10 +6097,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6156,10 +6126,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6185,10 +6155,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6214,10 +6184,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6243,10 +6213,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6272,10 +6242,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6301,10 +6271,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6330,10 +6300,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6359,10 +6329,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6388,10 +6358,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6417,10 +6387,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6446,10 +6416,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -6475,10 +6445,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6504,10 +6474,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6533,10 +6503,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6620,10 +6590,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6649,10 +6619,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6678,10 +6648,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6707,10 +6677,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6736,10 +6706,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6765,10 +6735,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6794,10 +6764,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6823,10 +6793,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6852,10 +6822,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6881,10 +6851,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6910,10 +6880,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -6939,10 +6909,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6968,10 +6938,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6997,10 +6967,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7026,10 +6996,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7055,10 +7025,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
